--- a/src/main/resources/static/excel/xlsx/student.xlsx
+++ b/src/main/resources/static/excel/xlsx/student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04A8722-4396-4321-95F7-8E3980B29A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E054B0-B091-466F-91B3-58A6684044F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>姓名</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>13712348596</t>
-  </si>
-  <si>
-    <t>女</t>
   </si>
   <si>
     <t>样本数据，添加时请删除。</t>
@@ -480,7 +477,7 @@
   <dimension ref="A1:G2297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -517,22 +514,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
+      <c r="D2" s="4">
+        <v>0</v>
       </c>
       <c r="E2" s="4">
         <v>2017</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/static/excel/xlsx/student.xlsx
+++ b/src/main/resources/static/excel/xlsx/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E054B0-B091-466F-91B3-58A6684044F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD3217-3CC4-4308-8EE9-BC1C0B9CD4F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -60,12 +60,16 @@
     <t>信管173</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -100,6 +104,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,7 +155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -159,6 +170,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,19 +488,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2297"/>
+  <dimension ref="A1:H2297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="1" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,11 +519,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -528,24 +545,27 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/static/excel/xlsx/student.xlsx
+++ b/src/main/resources/static/excel/xlsx/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD3217-3CC4-4308-8EE9-BC1C0B9CD4F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939D6940-FA8F-4A04-9289-39BBEEC7F587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>姓名</t>
   </si>
@@ -62,6 +62,14 @@
   </si>
   <si>
     <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +499,7 @@
   <dimension ref="A1:H2297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -536,8 +544,8 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="4">
         <v>2017</v>
@@ -545,8 +553,8 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
